--- a/Code/Results/Cases/Case_0_103/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_103/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.11930467677674</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.121960381320062</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.116170168079102</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.127904994434568</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.02359499962809</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.123999001747243</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.124529601422636</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.118753420251058</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.130459969277128</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.125595209254212</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.02</v>
+      </c>
+      <c r="C3">
+        <v>1.127664215780253</v>
+      </c>
+      <c r="D3">
+        <v>1.130245961736735</v>
+      </c>
+      <c r="E3">
+        <v>1.123868479459846</v>
+      </c>
+      <c r="F3">
+        <v>1.135996793085005</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.023504579208684</v>
+      </c>
+      <c r="J3">
+        <v>1.132002632217995</v>
+      </c>
+      <c r="K3">
+        <v>1.132624321884999</v>
+      </c>
+      <c r="L3">
+        <v>1.126260994390178</v>
+      </c>
+      <c r="M3">
+        <v>1.138362534929381</v>
+      </c>
+      <c r="N3">
+        <v>1.133610205798261</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.02</v>
+      </c>
+      <c r="C4">
+        <v>1.132947309507171</v>
+      </c>
+      <c r="D4">
+        <v>1.13548211285317</v>
+      </c>
+      <c r="E4">
+        <v>1.128730064556554</v>
+      </c>
+      <c r="F4">
+        <v>1.141109202607366</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.023443335729026</v>
+      </c>
+      <c r="J4">
+        <v>1.137058083070238</v>
+      </c>
+      <c r="K4">
+        <v>1.137738054612339</v>
+      </c>
+      <c r="L4">
+        <v>1.131000125158204</v>
+      </c>
+      <c r="M4">
+        <v>1.143353513834915</v>
+      </c>
+      <c r="N4">
+        <v>1.138672835970583</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.02</v>
+      </c>
+      <c r="C5">
+        <v>1.135139873017661</v>
+      </c>
+      <c r="D5">
+        <v>1.137655143920955</v>
+      </c>
+      <c r="E5">
+        <v>1.130746827842146</v>
+      </c>
+      <c r="F5">
+        <v>1.14323057310609</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.023416932628352</v>
+      </c>
+      <c r="J5">
+        <v>1.139155524197475</v>
+      </c>
+      <c r="K5">
+        <v>1.139859853327388</v>
+      </c>
+      <c r="L5">
+        <v>1.132965615156436</v>
+      </c>
+      <c r="M5">
+        <v>1.145424052766253</v>
+      </c>
+      <c r="N5">
+        <v>1.140773255704801</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.02</v>
+      </c>
+      <c r="C6">
+        <v>1.135506393849014</v>
+      </c>
+      <c r="D6">
+        <v>1.138018396573467</v>
+      </c>
+      <c r="E6">
+        <v>1.131083909989155</v>
+      </c>
+      <c r="F6">
+        <v>1.143585171911082</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.023412460900047</v>
+      </c>
+      <c r="J6">
+        <v>1.139506105929825</v>
+      </c>
+      <c r="K6">
+        <v>1.140214516735929</v>
+      </c>
+      <c r="L6">
+        <v>1.133294099720906</v>
+      </c>
+      <c r="M6">
+        <v>1.145770128801804</v>
+      </c>
+      <c r="N6">
+        <v>1.141124335303423</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.02</v>
+      </c>
+      <c r="C7">
+        <v>1.132976716235414</v>
+      </c>
+      <c r="D7">
+        <v>1.135511257814126</v>
+      </c>
+      <c r="E7">
+        <v>1.12875711687412</v>
+      </c>
+      <c r="F7">
+        <v>1.141137655904354</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.02344298551034</v>
+      </c>
+      <c r="J7">
+        <v>1.137086216566363</v>
+      </c>
+      <c r="K7">
+        <v>1.137766514124588</v>
+      </c>
+      <c r="L7">
+        <v>1.131026491579329</v>
+      </c>
+      <c r="M7">
+        <v>1.143381287094026</v>
+      </c>
+      <c r="N7">
+        <v>1.138701009419499</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.02</v>
+      </c>
+      <c r="C8">
+        <v>1.122157017915832</v>
+      </c>
+      <c r="D8">
+        <v>1.124787528306767</v>
+      </c>
+      <c r="E8">
+        <v>1.118797655344383</v>
+      </c>
+      <c r="F8">
+        <v>1.130666289255102</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.023565007130014</v>
+      </c>
+      <c r="J8">
+        <v>1.126730476943628</v>
+      </c>
+      <c r="K8">
+        <v>1.127292006072977</v>
+      </c>
+      <c r="L8">
+        <v>1.121316231663546</v>
+      </c>
+      <c r="M8">
+        <v>1.133157085735209</v>
+      </c>
+      <c r="N8">
+        <v>1.12833056345868</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.02</v>
+      </c>
+      <c r="C9">
+        <v>1.102039934531947</v>
+      </c>
+      <c r="D9">
+        <v>1.104847368016246</v>
+      </c>
+      <c r="E9">
+        <v>1.100250893134305</v>
+      </c>
+      <c r="F9">
+        <v>1.111185138929953</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.023759139049229</v>
+      </c>
+      <c r="J9">
+        <v>1.107454070148868</v>
+      </c>
+      <c r="K9">
+        <v>1.107800584862896</v>
+      </c>
+      <c r="L9">
+        <v>1.103217200130151</v>
+      </c>
+      <c r="M9">
+        <v>1.114120499327238</v>
+      </c>
+      <c r="N9">
+        <v>1.109026781955237</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.02</v>
+      </c>
+      <c r="C10">
+        <v>1.087787962179365</v>
+      </c>
+      <c r="D10">
+        <v>1.090719880111941</v>
+      </c>
+      <c r="E10">
+        <v>1.0870915567101</v>
+      </c>
+      <c r="F10">
+        <v>1.097375928771625</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.023874603872166</v>
+      </c>
+      <c r="J10">
+        <v>1.093782463933676</v>
+      </c>
+      <c r="K10">
+        <v>1.093980725407814</v>
+      </c>
+      <c r="L10">
+        <v>1.090364021598872</v>
+      </c>
+      <c r="M10">
+        <v>1.100615676725924</v>
+      </c>
+      <c r="N10">
+        <v>1.095335760491064</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.02</v>
+      </c>
+      <c r="C11">
+        <v>1.081382692465391</v>
+      </c>
+      <c r="D11">
+        <v>1.084370398681286</v>
+      </c>
+      <c r="E11">
+        <v>1.081172635673081</v>
+      </c>
+      <c r="F11">
+        <v>1.091167864868085</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.023921309042974</v>
+      </c>
+      <c r="J11">
+        <v>1.087634357319998</v>
+      </c>
+      <c r="K11">
+        <v>1.087766984655375</v>
+      </c>
+      <c r="L11">
+        <v>1.084579976699062</v>
+      </c>
+      <c r="M11">
+        <v>1.094541818690225</v>
+      </c>
+      <c r="N11">
+        <v>1.089178922860796</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.02</v>
+      </c>
+      <c r="C12">
+        <v>1.078964939073186</v>
+      </c>
+      <c r="D12">
+        <v>1.08197368381001</v>
+      </c>
+      <c r="E12">
+        <v>1.07893775403447</v>
+      </c>
+      <c r="F12">
+        <v>1.088824287447463</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.023938164268118</v>
+      </c>
+      <c r="J12">
+        <v>1.085313117384773</v>
+      </c>
+      <c r="K12">
+        <v>1.085421122203574</v>
+      </c>
+      <c r="L12">
+        <v>1.082395588277874</v>
+      </c>
+      <c r="M12">
+        <v>1.092248501545243</v>
+      </c>
+      <c r="N12">
+        <v>1.086854386498614</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.02</v>
+      </c>
+      <c r="C13">
+        <v>1.079485358840491</v>
+      </c>
+      <c r="D13">
+        <v>1.082489575854967</v>
+      </c>
+      <c r="E13">
+        <v>1.079418842664464</v>
+      </c>
+      <c r="F13">
+        <v>1.089328752603299</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.023934571058995</v>
+      </c>
+      <c r="J13">
+        <v>1.085812787876315</v>
+      </c>
+      <c r="K13">
+        <v>1.085926085775236</v>
+      </c>
+      <c r="L13">
+        <v>1.082865827275504</v>
+      </c>
+      <c r="M13">
+        <v>1.092742166282716</v>
+      </c>
+      <c r="N13">
+        <v>1.087354766579567</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.02</v>
+      </c>
+      <c r="C14">
+        <v>1.08118364770983</v>
+      </c>
+      <c r="D14">
+        <v>1.084173086318722</v>
+      </c>
+      <c r="E14">
+        <v>1.080988660412726</v>
+      </c>
+      <c r="F14">
+        <v>1.090974932024692</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.023922712353274</v>
+      </c>
+      <c r="J14">
+        <v>1.08744326947532</v>
+      </c>
+      <c r="K14">
+        <v>1.08757386663137</v>
+      </c>
+      <c r="L14">
+        <v>1.084400166886463</v>
+      </c>
+      <c r="M14">
+        <v>1.094353031702772</v>
+      </c>
+      <c r="N14">
+        <v>1.088987563649461</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.02</v>
+      </c>
+      <c r="C15">
+        <v>1.082224802801901</v>
+      </c>
+      <c r="D15">
+        <v>1.085205178914854</v>
+      </c>
+      <c r="E15">
+        <v>1.081950961859955</v>
+      </c>
+      <c r="F15">
+        <v>1.091984106560743</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.023915340507296</v>
+      </c>
+      <c r="J15">
+        <v>1.088442781232926</v>
+      </c>
+      <c r="K15">
+        <v>1.088584003963947</v>
+      </c>
+      <c r="L15">
+        <v>1.085340662839532</v>
+      </c>
+      <c r="M15">
+        <v>1.09534050404845</v>
+      </c>
+      <c r="N15">
+        <v>1.089988494828409</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.02</v>
+      </c>
+      <c r="C16">
+        <v>1.088207847655108</v>
+      </c>
+      <c r="D16">
+        <v>1.091136105550844</v>
+      </c>
+      <c r="E16">
+        <v>1.087479462762299</v>
+      </c>
+      <c r="F16">
+        <v>1.097782850249198</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.023871434968932</v>
+      </c>
+      <c r="J16">
+        <v>1.094185414993494</v>
+      </c>
+      <c r="K16">
+        <v>1.094387999846759</v>
+      </c>
+      <c r="L16">
+        <v>1.090743028912453</v>
+      </c>
+      <c r="M16">
+        <v>1.101013746105171</v>
+      </c>
+      <c r="N16">
+        <v>1.095739283787606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.02</v>
+      </c>
+      <c r="C17">
+        <v>1.091895923151713</v>
+      </c>
+      <c r="D17">
+        <v>1.094792015500116</v>
+      </c>
+      <c r="E17">
+        <v>1.090886112206199</v>
+      </c>
+      <c r="F17">
+        <v>1.10135685460965</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.023843013862359</v>
+      </c>
+      <c r="J17">
+        <v>1.097724330268717</v>
+      </c>
+      <c r="K17">
+        <v>1.097965002646591</v>
+      </c>
+      <c r="L17">
+        <v>1.094071206934786</v>
+      </c>
+      <c r="M17">
+        <v>1.104509703043903</v>
+      </c>
+      <c r="N17">
+        <v>1.099283224728439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.02</v>
+      </c>
+      <c r="C18">
+        <v>1.094024780004703</v>
+      </c>
+      <c r="D18">
+        <v>1.096902290237651</v>
+      </c>
+      <c r="E18">
+        <v>1.092852077358432</v>
+      </c>
+      <c r="F18">
+        <v>1.103419697666059</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.023826118601775</v>
+      </c>
+      <c r="J18">
+        <v>1.099766741765795</v>
+      </c>
+      <c r="K18">
+        <v>1.100029493036319</v>
+      </c>
+      <c r="L18">
+        <v>1.095991620202073</v>
+      </c>
+      <c r="M18">
+        <v>1.1065272507019</v>
+      </c>
+      <c r="N18">
+        <v>1.101328536684111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.02</v>
+      </c>
+      <c r="C19">
+        <v>1.094746972908724</v>
+      </c>
+      <c r="D19">
+        <v>1.097618176634023</v>
+      </c>
+      <c r="E19">
+        <v>1.093518935412884</v>
+      </c>
+      <c r="F19">
+        <v>1.104119467254661</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.023820303822167</v>
+      </c>
+      <c r="J19">
+        <v>1.100459550407831</v>
+      </c>
+      <c r="K19">
+        <v>1.100729807548201</v>
+      </c>
+      <c r="L19">
+        <v>1.09664298206506</v>
+      </c>
+      <c r="M19">
+        <v>1.107211613066829</v>
+      </c>
+      <c r="N19">
+        <v>1.102022329193885</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.02</v>
+      </c>
+      <c r="C20">
+        <v>1.091502560931593</v>
+      </c>
+      <c r="D20">
+        <v>1.09440208554709</v>
+      </c>
+      <c r="E20">
+        <v>1.0905228124891</v>
+      </c>
+      <c r="F20">
+        <v>1.100975676466864</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.023846096030143</v>
+      </c>
+      <c r="J20">
+        <v>1.097346913127802</v>
+      </c>
+      <c r="K20">
+        <v>1.097583513419853</v>
+      </c>
+      <c r="L20">
+        <v>1.09371630346406</v>
+      </c>
+      <c r="M20">
+        <v>1.104136874696816</v>
+      </c>
+      <c r="N20">
+        <v>1.098905271611894</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.02</v>
+      </c>
+      <c r="C21">
+        <v>1.08068463745053</v>
+      </c>
+      <c r="D21">
+        <v>1.083678418914665</v>
+      </c>
+      <c r="E21">
+        <v>1.080527418392746</v>
+      </c>
+      <c r="F21">
+        <v>1.090491240292636</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.02392621804881</v>
+      </c>
+      <c r="J21">
+        <v>1.086964198430264</v>
+      </c>
+      <c r="K21">
+        <v>1.087089708328392</v>
+      </c>
+      <c r="L21">
+        <v>1.08394936100057</v>
+      </c>
+      <c r="M21">
+        <v>1.093879727314764</v>
+      </c>
+      <c r="N21">
+        <v>1.088507812268572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.02</v>
+      </c>
+      <c r="C22">
+        <v>1.07365793797096</v>
+      </c>
+      <c r="D22">
+        <v>1.076712831908887</v>
+      </c>
+      <c r="E22">
+        <v>1.074030858917965</v>
+      </c>
+      <c r="F22">
+        <v>1.083679628785361</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.023973741382756</v>
+      </c>
+      <c r="J22">
+        <v>1.080216935054343</v>
+      </c>
+      <c r="K22">
+        <v>1.080271175818137</v>
+      </c>
+      <c r="L22">
+        <v>1.077598746938147</v>
+      </c>
+      <c r="M22">
+        <v>1.087213423769951</v>
+      </c>
+      <c r="N22">
+        <v>1.081750967004734</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.02</v>
+      </c>
+      <c r="C23">
+        <v>1.077405499610204</v>
+      </c>
+      <c r="D23">
+        <v>1.080427809188463</v>
+      </c>
+      <c r="E23">
+        <v>1.077496067012627</v>
+      </c>
+      <c r="F23">
+        <v>1.087312618175301</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.023948818288664</v>
+      </c>
+      <c r="J23">
+        <v>1.083815771345135</v>
+      </c>
+      <c r="K23">
+        <v>1.083907937891714</v>
+      </c>
+      <c r="L23">
+        <v>1.08098635031328</v>
+      </c>
+      <c r="M23">
+        <v>1.090769136901199</v>
+      </c>
+      <c r="N23">
+        <v>1.085354914055852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.02</v>
+      </c>
+      <c r="C24">
+        <v>1.091680373158754</v>
+      </c>
+      <c r="D24">
+        <v>1.094578346328208</v>
+      </c>
+      <c r="E24">
+        <v>1.090687036890534</v>
+      </c>
+      <c r="F24">
+        <v>1.101147981628325</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.023844704313072</v>
+      </c>
+      <c r="J24">
+        <v>1.097517518746035</v>
+      </c>
+      <c r="K24">
+        <v>1.097755959459531</v>
+      </c>
+      <c r="L24">
+        <v>1.093876733289351</v>
+      </c>
+      <c r="M24">
+        <v>1.10430540624296</v>
+      </c>
+      <c r="N24">
+        <v>1.099076119509674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.02</v>
+      </c>
+      <c r="C25">
+        <v>1.107378175432834</v>
+      </c>
+      <c r="D25">
+        <v>1.110138820798604</v>
+      </c>
+      <c r="E25">
+        <v>1.105175833197984</v>
+      </c>
+      <c r="F25">
+        <v>1.1163559754496</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.02371141742819</v>
+      </c>
+      <c r="J25">
+        <v>1.112571814778323</v>
+      </c>
+      <c r="K25">
+        <v>1.112974696917723</v>
+      </c>
+      <c r="L25">
+        <v>1.108025189218621</v>
+      </c>
+      <c r="M25">
+        <v>1.119175148149735</v>
+      </c>
+      <c r="N25">
+        <v>1.114151794369079</v>
       </c>
     </row>
   </sheetData>
